--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56214.48974817488</v>
+        <v>-180099.610592778</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11166114.43280321</v>
+        <v>10411128.37205422</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22758219.40277296</v>
+        <v>22003233.34202397</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3955872.251023705</v>
+        <v>4344508.667699396</v>
       </c>
     </row>
     <row r="11">
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,25 +9561,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
         <v>26.75787480980772</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10749,7 +10749,7 @@
         <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
         <v>48.52123852856002</v>
@@ -10758,10 +10758,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11299,22 +11299,22 @@
         <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
         <v>83.46310250126157</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,16 +11460,16 @@
         <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
         <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
         <v>67.97552059180407</v>
@@ -22883,34 +22883,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -23290,13 +23290,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23439,7 +23439,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
         <v>151.3616578248528</v>
@@ -23527,13 +23527,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23676,7 +23676,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -23755,31 +23755,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23831,13 +23831,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330533</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,13 +23852,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S18" t="n">
         <v>158.905408270449</v>
@@ -23913,7 +23913,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
         <v>151.3616578248528</v>
@@ -23998,16 +23998,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,10 +24089,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>57.4466155766215</v>
@@ -24150,13 +24150,13 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -24165,13 +24165,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.2119976362414</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
         <v>151.3616578248528</v>
@@ -24235,16 +24235,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24311,7 +24311,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24387,19 +24387,19 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
         <v>151.3616578248528</v>
@@ -24466,31 +24466,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
         <v>151.3616578248528</v>
@@ -24703,31 +24703,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24779,13 +24779,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83750674330533</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,13 +24800,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S30" t="n">
         <v>158.905408270449</v>
@@ -24861,7 +24861,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24946,25 +24946,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25177,31 +25177,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679383</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
         <v>179.7218745449422</v>
@@ -25274,10 +25274,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>57.4466155766215</v>
@@ -25335,13 +25335,13 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -25350,7 +25350,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -25414,31 +25414,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25496,7 +25496,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25651,31 +25651,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25891,22 +25891,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -25967,10 +25967,10 @@
         <v>65.71175959472041</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,10 +25985,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>57.4466155766215</v>
@@ -26052,16 +26052,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>291082.266089114</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373021.2670964195</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373021.2670964195</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>308542.3099688671</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355192.281676233</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>360505.1327081114</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>321131.2059155582</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>308542.3099688671</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>359807.0688324533</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>323944.5852597518</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>321131.2059155582</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>321325.0435980241</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>336977.6212779985</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>48378.33248915088</v>
       </c>
       <c r="C2" t="n">
-        <v>37424.86278288608</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
-        <v>53475.77869317737</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="F2" t="n">
-        <v>53475.77869317737</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="G2" t="n">
-        <v>45185.62706249214</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="H2" t="n">
-        <v>51183.48056772485</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="I2" t="n">
-        <v>51866.56141468064</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="J2" t="n">
-        <v>46804.19939849528</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="K2" t="n">
-        <v>45185.62706249214</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="L2" t="n">
-        <v>51776.8103449532</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="M2" t="n">
-        <v>47165.91959989159</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="N2" t="n">
-        <v>46804.19939849528</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="O2" t="n">
-        <v>46829.12138624088</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="P2" t="n">
-        <v>48841.59565938044</v>
+        <v>53799.16458686216</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>37424.86278288608</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>10574.32262043909</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="F4" t="n">
-        <v>10574.32262043909</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="G4" t="n">
-        <v>2284.170989753854</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="H4" t="n">
-        <v>8282.024494986565</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="I4" t="n">
-        <v>8965.105341942355</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="J4" t="n">
-        <v>3902.743325756996</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="K4" t="n">
-        <v>2284.170989753854</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="L4" t="n">
-        <v>8875.354272214916</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="M4" t="n">
-        <v>4264.463527153306</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="N4" t="n">
-        <v>3902.743325756996</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="O4" t="n">
-        <v>3927.665313502606</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>5940.13958664216</v>
+        <v>10897.70851412389</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
         <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
         <v>6972.102563257328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003477</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>-221015.972895502</v>
+        <v>-235564.3321880132</v>
       </c>
       <c r="F6" t="n">
-        <v>35929.35350948095</v>
+        <v>21380.99421696964</v>
       </c>
       <c r="G6" t="n">
-        <v>35929.35350948096</v>
+        <v>21380.99421696964</v>
       </c>
       <c r="H6" t="n">
-        <v>35929.35350948096</v>
+        <v>21380.99421696965</v>
       </c>
       <c r="I6" t="n">
-        <v>35929.35350948096</v>
+        <v>21380.99421696964</v>
       </c>
       <c r="J6" t="n">
-        <v>35929.35350948096</v>
+        <v>21380.99421696964</v>
       </c>
       <c r="K6" t="n">
-        <v>35929.35350948096</v>
+        <v>21380.99421696965</v>
       </c>
       <c r="L6" t="n">
-        <v>35929.35350948096</v>
+        <v>21380.99421696964</v>
       </c>
       <c r="M6" t="n">
-        <v>35929.35350948096</v>
+        <v>21380.99421696965</v>
       </c>
       <c r="N6" t="n">
-        <v>35929.35350948096</v>
+        <v>21380.99421696965</v>
       </c>
       <c r="O6" t="n">
-        <v>35929.35350948095</v>
+        <v>21380.99421696965</v>
       </c>
       <c r="P6" t="n">
-        <v>35929.35350948096</v>
+        <v>21380.99421696964</v>
       </c>
     </row>
   </sheetData>
@@ -31758,16 +31758,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
         <v>225.7600302817866</v>
@@ -31785,13 +31785,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31858,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
         <v>25.93173355231669</v>
@@ -31995,16 +31995,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32022,13 +32022,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32095,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,37 +32147,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32232,16 +32232,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32259,13 +32259,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32332,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,37 +32384,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -32469,16 +32469,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32496,13 +32496,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32569,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,37 +32621,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32706,16 +32706,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
         <v>225.7600302817866</v>
@@ -32733,13 +32733,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32806,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,37 +32858,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
         <v>25.93173355231669</v>
@@ -32943,16 +32943,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -32970,13 +32970,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33043,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,37 +33095,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33180,16 +33180,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33207,13 +33207,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33417,16 +33417,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33444,13 +33444,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33657,7 +33657,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
@@ -33681,13 +33681,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33736,7 +33736,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33766,7 +33766,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
         <v>0.04525771959877963</v>
@@ -33809,13 +33809,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
         <v>67.00516676073742</v>
@@ -33830,10 +33830,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
         <v>48.29300399320443</v>
@@ -33891,16 +33891,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33918,13 +33918,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,37 +34043,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34128,16 +34128,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34155,13 +34155,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180099.610592778</v>
+        <v>-69067.30412180052</v>
       </c>
     </row>
     <row r="7">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K11" t="n">
         <v>56.54227989916996</v>
@@ -8698,13 +8698,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P11" t="n">
         <v>46.34579576917247</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K12" t="n">
         <v>26.75787480980772</v>
@@ -8862,10 +8862,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L14" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L17" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L23" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K24" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K36" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K38" t="n">
         <v>56.54227989916996</v>
@@ -10831,13 +10831,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P38" t="n">
         <v>46.34579576917247</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K39" t="n">
         <v>26.75787480980772</v>
@@ -10995,10 +10995,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K44" t="n">
         <v>56.54227989916996</v>
@@ -11305,13 +11305,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P44" t="n">
         <v>46.34579576917247</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K45" t="n">
         <v>26.75787480980772</v>
@@ -11469,10 +11469,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23439,7 +23439,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23676,7 +23676,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23913,7 +23913,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R19" t="n">
         <v>151.3616578248528</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24150,7 +24150,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R22" t="n">
         <v>151.3616578248528</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24387,7 +24387,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R25" t="n">
         <v>151.3616578248528</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24624,7 +24624,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R28" t="n">
         <v>151.3616578248528</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24861,7 +24861,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25098,7 +25098,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S35" t="n">
         <v>179.7218745449422</v>
@@ -25335,7 +25335,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25572,7 +25572,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25809,7 +25809,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -26046,7 +26046,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26316,13 +26316,13 @@
         <v>48378.33248915088</v>
       </c>
       <c r="C2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
-        <v>53799.16458686216</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="F2" t="n">
         <v>53799.16458686216</v>
@@ -26334,28 +26334,28 @@
         <v>53799.16458686216</v>
       </c>
       <c r="I2" t="n">
-        <v>53799.16458686216</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="J2" t="n">
-        <v>53799.16458686216</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="K2" t="n">
-        <v>53799.16458686216</v>
+        <v>53799.16458686218</v>
       </c>
       <c r="L2" t="n">
-        <v>53799.16458686216</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="M2" t="n">
         <v>53799.16458686216</v>
       </c>
       <c r="N2" t="n">
-        <v>53799.16458686216</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="O2" t="n">
-        <v>53799.16458686216</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="P2" t="n">
-        <v>53799.16458686216</v>
+        <v>53799.16458686217</v>
       </c>
     </row>
     <row r="3">
@@ -26481,34 +26481,34 @@
         <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="N5" t="n">
         <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="P5" t="n">
         <v>6972.102563257328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700347</v>
       </c>
       <c r="C6" t="n">
-        <v>-48778.27397003477</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="D6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700347</v>
       </c>
       <c r="E6" t="n">
-        <v>-235564.3321880132</v>
+        <v>-222470.8088247531</v>
       </c>
       <c r="F6" t="n">
-        <v>21380.99421696964</v>
+        <v>34474.51758022982</v>
       </c>
       <c r="G6" t="n">
-        <v>21380.99421696964</v>
+        <v>34474.51758022982</v>
       </c>
       <c r="H6" t="n">
-        <v>21380.99421696965</v>
+        <v>34474.51758022982</v>
       </c>
       <c r="I6" t="n">
-        <v>21380.99421696964</v>
+        <v>34474.51758022983</v>
       </c>
       <c r="J6" t="n">
-        <v>21380.99421696964</v>
+        <v>34474.51758022983</v>
       </c>
       <c r="K6" t="n">
-        <v>21380.99421696965</v>
+        <v>34474.51758022983</v>
       </c>
       <c r="L6" t="n">
-        <v>21380.99421696964</v>
+        <v>34474.51758022983</v>
       </c>
       <c r="M6" t="n">
-        <v>21380.99421696965</v>
+        <v>34474.51758022982</v>
       </c>
       <c r="N6" t="n">
-        <v>21380.99421696965</v>
+        <v>34474.51758022982</v>
       </c>
       <c r="O6" t="n">
-        <v>21380.99421696965</v>
+        <v>34474.51758022983</v>
       </c>
       <c r="P6" t="n">
-        <v>21380.99421696964</v>
+        <v>34474.51758022982</v>
       </c>
     </row>
   </sheetData>
@@ -31761,7 +31761,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
@@ -31785,13 +31785,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S11" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T11" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31840,7 +31840,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31870,7 +31870,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U12" t="n">
         <v>0.04525771959877963</v>
@@ -31913,13 +31913,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K13" t="n">
         <v>67.00516676073742</v>
@@ -31934,10 +31934,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q13" t="n">
         <v>48.29300399320443</v>
@@ -31995,16 +31995,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32022,13 +32022,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S14" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T14" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32095,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,37 +32147,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32232,16 +32232,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32259,13 +32259,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T17" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32332,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,37 +32384,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -32469,16 +32469,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32496,13 +32496,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T20" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32569,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,37 +32621,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32706,16 +32706,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M23" t="n">
         <v>225.7600302817866</v>
@@ -32733,13 +32733,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S23" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T23" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I24" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32806,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S24" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,37 +32858,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R25" t="n">
         <v>25.93173355231669</v>
@@ -32943,16 +32943,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -32970,13 +32970,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T26" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33043,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,37 +33095,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33180,16 +33180,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33207,13 +33207,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33417,16 +33417,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33444,13 +33444,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S32" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33654,16 +33654,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33681,13 +33681,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S35" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,37 +33806,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33894,7 +33894,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
@@ -33918,13 +33918,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33973,7 +33973,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -34003,7 +34003,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U39" t="n">
         <v>0.04525771959877963</v>
@@ -34046,13 +34046,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K40" t="n">
         <v>67.00516676073742</v>
@@ -34067,10 +34067,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q40" t="n">
         <v>48.29300399320443</v>
@@ -34128,16 +34128,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34155,13 +34155,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S41" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34368,7 +34368,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
@@ -34392,13 +34392,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S44" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T44" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34447,7 +34447,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34477,7 +34477,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U45" t="n">
         <v>0.04525771959877963</v>
@@ -34520,13 +34520,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K46" t="n">
         <v>67.00516676073742</v>
@@ -34541,10 +34541,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q46" t="n">
         <v>48.29300399320443</v>
